--- a/data/raw_data/NC/pop_est_2020-2021_nc.xlsx
+++ b/data/raw_data/NC/pop_est_2020-2021_nc.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iulia\Documents\NSS\projects\capstone\data\NC\raw_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iulia\Documents\NSS\projects\capstone\data\raw_data\NC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13B4163C-9131-4616-AD8C-C586A5D8989A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{263F90A3-18CC-4537-8978-332E8D59D59C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28710" yWindow="0" windowWidth="19080" windowHeight="15480" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="orig" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,19 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">orig!$A$2:$D$110</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">orig!$A:$A,orig!$2:$2</definedName>
   </definedNames>
-  <calcPr calcId="0" iterate="1" iterateCount="1000" calcOnSave="0"/>
+  <calcPr calcId="191029" iterate="1" iterateCount="1000" calcOnSave="0"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -1568,304 +1580,304 @@
     <t>Estimates Base</t>
   </si>
   <si>
-    <t>Alamance County</t>
-  </si>
-  <si>
-    <t>Alexander County</t>
-  </si>
-  <si>
-    <t>Alleghany County</t>
-  </si>
-  <si>
-    <t>Anson County</t>
-  </si>
-  <si>
-    <t>Ashe County</t>
-  </si>
-  <si>
-    <t>Avery County</t>
-  </si>
-  <si>
-    <t>Beaufort County</t>
-  </si>
-  <si>
-    <t>Bertie County</t>
-  </si>
-  <si>
-    <t>Bladen County</t>
-  </si>
-  <si>
-    <t>Brunswick County</t>
-  </si>
-  <si>
-    <t>Buncombe County</t>
-  </si>
-  <si>
-    <t>Burke County</t>
-  </si>
-  <si>
-    <t>Cabarrus County</t>
-  </si>
-  <si>
-    <t>Caldwell County</t>
-  </si>
-  <si>
-    <t>Camden County</t>
-  </si>
-  <si>
-    <t>Carteret County</t>
-  </si>
-  <si>
-    <t>Caswell County</t>
-  </si>
-  <si>
-    <t>Catawba County</t>
-  </si>
-  <si>
-    <t>Chatham County</t>
-  </si>
-  <si>
-    <t>Cherokee County</t>
-  </si>
-  <si>
-    <t>Chowan County</t>
-  </si>
-  <si>
-    <t>Clay County</t>
-  </si>
-  <si>
-    <t>Cleveland County</t>
-  </si>
-  <si>
-    <t>Columbus County</t>
-  </si>
-  <si>
-    <t>Craven County</t>
-  </si>
-  <si>
-    <t>Cumberland County</t>
-  </si>
-  <si>
-    <t>Currituck County</t>
-  </si>
-  <si>
-    <t>Dare County</t>
-  </si>
-  <si>
-    <t>Davidson County</t>
-  </si>
-  <si>
-    <t>Davie County</t>
-  </si>
-  <si>
-    <t>Duplin County</t>
-  </si>
-  <si>
-    <t>Durham County</t>
-  </si>
-  <si>
-    <t>Edgecombe County</t>
-  </si>
-  <si>
-    <t>Forsyth County</t>
-  </si>
-  <si>
-    <t>Franklin County</t>
-  </si>
-  <si>
-    <t>Gaston County</t>
-  </si>
-  <si>
-    <t>Gates County</t>
-  </si>
-  <si>
-    <t>Graham County</t>
-  </si>
-  <si>
-    <t>Granville County</t>
-  </si>
-  <si>
-    <t>Greene County</t>
-  </si>
-  <si>
-    <t>Guilford County</t>
-  </si>
-  <si>
-    <t>Halifax County</t>
-  </si>
-  <si>
-    <t>Harnett County</t>
-  </si>
-  <si>
-    <t>Haywood County</t>
-  </si>
-  <si>
-    <t>Henderson County</t>
-  </si>
-  <si>
-    <t>Hertford County</t>
-  </si>
-  <si>
-    <t>Hoke County</t>
-  </si>
-  <si>
-    <t>Hyde County</t>
-  </si>
-  <si>
-    <t>Iredell County</t>
-  </si>
-  <si>
-    <t>Jackson County</t>
-  </si>
-  <si>
-    <t>Johnston County</t>
-  </si>
-  <si>
-    <t>Jones County</t>
-  </si>
-  <si>
-    <t>Lee County</t>
-  </si>
-  <si>
-    <t>Lenoir County</t>
-  </si>
-  <si>
-    <t>Lincoln County</t>
-  </si>
-  <si>
-    <t>McDowell County</t>
-  </si>
-  <si>
-    <t>Macon County</t>
-  </si>
-  <si>
-    <t>Madison County</t>
-  </si>
-  <si>
-    <t>Martin County</t>
-  </si>
-  <si>
-    <t>Mecklenburg County</t>
-  </si>
-  <si>
-    <t>Mitchell County</t>
-  </si>
-  <si>
-    <t>Montgomery County</t>
-  </si>
-  <si>
-    <t>Moore County</t>
-  </si>
-  <si>
-    <t>Nash County</t>
-  </si>
-  <si>
-    <t>New Hanover County</t>
-  </si>
-  <si>
-    <t>Northampton County</t>
-  </si>
-  <si>
-    <t>Onslow County</t>
-  </si>
-  <si>
-    <t>Orange County</t>
-  </si>
-  <si>
-    <t>Pamlico County</t>
-  </si>
-  <si>
-    <t>Pasquotank County</t>
-  </si>
-  <si>
-    <t>Pender County</t>
-  </si>
-  <si>
-    <t>Perquimans County</t>
-  </si>
-  <si>
-    <t>Person County</t>
-  </si>
-  <si>
-    <t>Pitt County</t>
-  </si>
-  <si>
-    <t>Polk County</t>
-  </si>
-  <si>
-    <t>Randolph County</t>
-  </si>
-  <si>
-    <t>Richmond County</t>
-  </si>
-  <si>
-    <t>Robeson County</t>
-  </si>
-  <si>
-    <t>Rockingham County</t>
-  </si>
-  <si>
-    <t>Rowan County</t>
-  </si>
-  <si>
-    <t>Rutherford County</t>
-  </si>
-  <si>
-    <t>Sampson County</t>
-  </si>
-  <si>
-    <t>Scotland County</t>
-  </si>
-  <si>
-    <t>Stanly County</t>
-  </si>
-  <si>
-    <t>Stokes County</t>
-  </si>
-  <si>
-    <t>Surry County</t>
-  </si>
-  <si>
-    <t>Swain County</t>
-  </si>
-  <si>
-    <t>Transylvania County</t>
-  </si>
-  <si>
-    <t>Tyrrell County</t>
-  </si>
-  <si>
-    <t>Union County</t>
-  </si>
-  <si>
-    <t>Vance County</t>
-  </si>
-  <si>
-    <t>Wake County</t>
-  </si>
-  <si>
-    <t>Warren County</t>
-  </si>
-  <si>
-    <t>Washington County</t>
-  </si>
-  <si>
-    <t>Watauga County</t>
-  </si>
-  <si>
-    <t>Wayne County</t>
-  </si>
-  <si>
-    <t>Wilkes County</t>
-  </si>
-  <si>
-    <t>Wilson County</t>
-  </si>
-  <si>
-    <t>Yadkin County</t>
-  </si>
-  <si>
-    <t>Yancey County</t>
+    <t>Alexander</t>
+  </si>
+  <si>
+    <t>Alleghany</t>
+  </si>
+  <si>
+    <t>Anson</t>
+  </si>
+  <si>
+    <t>Ashe</t>
+  </si>
+  <si>
+    <t>Avery</t>
+  </si>
+  <si>
+    <t>Beaufort</t>
+  </si>
+  <si>
+    <t>Bertie</t>
+  </si>
+  <si>
+    <t>Bladen</t>
+  </si>
+  <si>
+    <t>Brunswick</t>
+  </si>
+  <si>
+    <t>Buncombe</t>
+  </si>
+  <si>
+    <t>Burke</t>
+  </si>
+  <si>
+    <t>Cabarrus</t>
+  </si>
+  <si>
+    <t>Caldwell</t>
+  </si>
+  <si>
+    <t>Camden</t>
+  </si>
+  <si>
+    <t>Carteret</t>
+  </si>
+  <si>
+    <t>Caswell</t>
+  </si>
+  <si>
+    <t>Catawba</t>
+  </si>
+  <si>
+    <t>Chatham</t>
+  </si>
+  <si>
+    <t>Cherokee</t>
+  </si>
+  <si>
+    <t>Chowan</t>
+  </si>
+  <si>
+    <t>Clay</t>
+  </si>
+  <si>
+    <t>Cleveland</t>
+  </si>
+  <si>
+    <t>Columbus</t>
+  </si>
+  <si>
+    <t>Craven</t>
+  </si>
+  <si>
+    <t>Cumberland</t>
+  </si>
+  <si>
+    <t>Currituck</t>
+  </si>
+  <si>
+    <t>Dare</t>
+  </si>
+  <si>
+    <t>Davidson</t>
+  </si>
+  <si>
+    <t>Davie</t>
+  </si>
+  <si>
+    <t>Duplin</t>
+  </si>
+  <si>
+    <t>Durham</t>
+  </si>
+  <si>
+    <t>Edgecombe</t>
+  </si>
+  <si>
+    <t>Forsyth</t>
+  </si>
+  <si>
+    <t>Franklin</t>
+  </si>
+  <si>
+    <t>Gaston</t>
+  </si>
+  <si>
+    <t>Gates</t>
+  </si>
+  <si>
+    <t>Graham</t>
+  </si>
+  <si>
+    <t>Granville</t>
+  </si>
+  <si>
+    <t>Greene</t>
+  </si>
+  <si>
+    <t>Guilford</t>
+  </si>
+  <si>
+    <t>Halifax</t>
+  </si>
+  <si>
+    <t>Harnett</t>
+  </si>
+  <si>
+    <t>Haywood</t>
+  </si>
+  <si>
+    <t>Henderson</t>
+  </si>
+  <si>
+    <t>Hertford</t>
+  </si>
+  <si>
+    <t>Hoke</t>
+  </si>
+  <si>
+    <t>Hyde</t>
+  </si>
+  <si>
+    <t>Iredell</t>
+  </si>
+  <si>
+    <t>Jackson</t>
+  </si>
+  <si>
+    <t>Johnston</t>
+  </si>
+  <si>
+    <t>Jones</t>
+  </si>
+  <si>
+    <t>Lee</t>
+  </si>
+  <si>
+    <t>Lenoir</t>
+  </si>
+  <si>
+    <t>Lincoln</t>
+  </si>
+  <si>
+    <t>McDowell</t>
+  </si>
+  <si>
+    <t>Macon</t>
+  </si>
+  <si>
+    <t>Madison</t>
+  </si>
+  <si>
+    <t>Martin</t>
+  </si>
+  <si>
+    <t>Mecklenburg</t>
+  </si>
+  <si>
+    <t>Mitchell</t>
+  </si>
+  <si>
+    <t>Montgomery</t>
+  </si>
+  <si>
+    <t>Moore</t>
+  </si>
+  <si>
+    <t>Nash</t>
+  </si>
+  <si>
+    <t>New Hanover</t>
+  </si>
+  <si>
+    <t>Northampton</t>
+  </si>
+  <si>
+    <t>Onslow</t>
+  </si>
+  <si>
+    <t>Orange</t>
+  </si>
+  <si>
+    <t>Pamlico</t>
+  </si>
+  <si>
+    <t>Pasquotank</t>
+  </si>
+  <si>
+    <t>Pender</t>
+  </si>
+  <si>
+    <t>Perquimans</t>
+  </si>
+  <si>
+    <t>Person</t>
+  </si>
+  <si>
+    <t>Pitt</t>
+  </si>
+  <si>
+    <t>Polk</t>
+  </si>
+  <si>
+    <t>Randolph</t>
+  </si>
+  <si>
+    <t>Richmond</t>
+  </si>
+  <si>
+    <t>Robeson</t>
+  </si>
+  <si>
+    <t>Rockingham</t>
+  </si>
+  <si>
+    <t>Rowan</t>
+  </si>
+  <si>
+    <t>Rutherford</t>
+  </si>
+  <si>
+    <t>Sampson</t>
+  </si>
+  <si>
+    <t>Scotland</t>
+  </si>
+  <si>
+    <t>Stanly</t>
+  </si>
+  <si>
+    <t>Stokes</t>
+  </si>
+  <si>
+    <t>Surry</t>
+  </si>
+  <si>
+    <t>Swain</t>
+  </si>
+  <si>
+    <t>Transylvania</t>
+  </si>
+  <si>
+    <t>Tyrrell</t>
+  </si>
+  <si>
+    <t>Union</t>
+  </si>
+  <si>
+    <t>Vance</t>
+  </si>
+  <si>
+    <t>Wake</t>
+  </si>
+  <si>
+    <t>Warren</t>
+  </si>
+  <si>
+    <t>Washington</t>
+  </si>
+  <si>
+    <t>Watauga</t>
+  </si>
+  <si>
+    <t>Wayne</t>
+  </si>
+  <si>
+    <t>Wilkes</t>
+  </si>
+  <si>
+    <t>Wilson</t>
+  </si>
+  <si>
+    <t>Yadkin</t>
+  </si>
+  <si>
+    <t>Yancey</t>
+  </si>
+  <si>
+    <t>Alamance</t>
   </si>
 </sst>
 </file>
@@ -2562,7 +2574,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A105" sqref="A3:D105"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5:D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4090,8 +4102,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AD5195A-2135-45F0-A631-D73362FD559A}">
   <dimension ref="A1:D102"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A72" workbookViewId="0">
+      <selection activeCell="A102" sqref="A102:D102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4118,7 +4130,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>113</v>
+        <v>212</v>
       </c>
       <c r="B2">
         <v>171415</v>
@@ -4132,7 +4144,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B3">
         <v>36444</v>
@@ -4146,7 +4158,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B4">
         <v>10888</v>
@@ -4160,7 +4172,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B5">
         <v>22055</v>
@@ -4174,7 +4186,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B6">
         <v>26577</v>
@@ -4188,7 +4200,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B7">
         <v>17806</v>
@@ -4202,7 +4214,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B8">
         <v>44652</v>
@@ -4216,7 +4228,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B9">
         <v>17934</v>
@@ -4230,7 +4242,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B10">
         <v>29606</v>
@@ -4244,7 +4256,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B11">
         <v>136693</v>
@@ -4258,7 +4270,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B12">
         <v>269452</v>
@@ -4272,7 +4284,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B13">
         <v>87570</v>
@@ -4286,7 +4298,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B14">
         <v>225804</v>
@@ -4300,7 +4312,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B15">
         <v>80652</v>
@@ -4314,7 +4326,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B16">
         <v>10355</v>
@@ -4328,7 +4340,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B17">
         <v>67686</v>
@@ -4342,7 +4354,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B18">
         <v>22736</v>
@@ -4356,7 +4368,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B19">
         <v>160610</v>
@@ -4370,7 +4382,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B20">
         <v>76285</v>
@@ -4384,7 +4396,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B21">
         <v>28774</v>
@@ -4398,7 +4410,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B22">
         <v>13708</v>
@@ -4412,7 +4424,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B23">
         <v>11089</v>
@@ -4426,7 +4438,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B24">
         <v>99519</v>
@@ -4440,7 +4452,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B25">
         <v>50623</v>
@@ -4454,7 +4466,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B26">
         <v>100720</v>
@@ -4468,7 +4480,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B27">
         <v>334728</v>
@@ -4482,7 +4494,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B28">
         <v>28100</v>
@@ -4496,7 +4508,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B29">
         <v>36915</v>
@@ -4510,7 +4522,7 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B30">
         <v>168930</v>
@@ -4524,7 +4536,7 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B31">
         <v>42712</v>
@@ -4538,7 +4550,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B32">
         <v>48715</v>
@@ -4552,7 +4564,7 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B33">
         <v>324833</v>
@@ -4566,7 +4578,7 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B34">
         <v>48900</v>
@@ -4580,7 +4592,7 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B35">
         <v>382590</v>
@@ -4594,7 +4606,7 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B36">
         <v>68573</v>
@@ -4608,7 +4620,7 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B37">
         <v>227943</v>
@@ -4622,7 +4634,7 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B38">
         <v>10478</v>
@@ -4636,7 +4648,7 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B39">
         <v>8030</v>
@@ -4650,7 +4662,7 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B40">
         <v>60992</v>
@@ -4664,7 +4676,7 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B41">
         <v>20451</v>
@@ -4678,7 +4690,7 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B42">
         <v>541299</v>
@@ -4692,7 +4704,7 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B43">
         <v>48622</v>
@@ -4706,7 +4718,7 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B44">
         <v>133568</v>
@@ -4720,7 +4732,7 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B45">
         <v>62089</v>
@@ -4734,7 +4746,7 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B46">
         <v>116281</v>
@@ -4748,7 +4760,7 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B47">
         <v>21552</v>
@@ -4762,7 +4774,7 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B48">
         <v>52082</v>
@@ -4776,7 +4788,7 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B49">
         <v>4589</v>
@@ -4790,7 +4802,7 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B50">
         <v>186693</v>
@@ -4804,7 +4816,7 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B51">
         <v>43109</v>
@@ -4818,7 +4830,7 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B52">
         <v>215999</v>
@@ -4832,7 +4844,7 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B53">
         <v>9172</v>
@@ -4846,7 +4858,7 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B54">
         <v>63285</v>
@@ -4860,7 +4872,7 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B55">
         <v>55122</v>
@@ -4874,7 +4886,7 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B56">
         <v>86810</v>
@@ -4888,7 +4900,7 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B57">
         <v>44578</v>
@@ -4902,7 +4914,7 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B58">
         <v>37014</v>
@@ -4916,7 +4928,7 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B59">
         <v>21193</v>
@@ -4930,7 +4942,7 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B60">
         <v>22031</v>
@@ -4944,7 +4956,7 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B61">
         <v>1115482</v>
@@ -4958,7 +4970,7 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B62">
         <v>14903</v>
@@ -4972,7 +4984,7 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B63">
         <v>25751</v>
@@ -4986,7 +4998,7 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B64">
         <v>99727</v>
@@ -5000,7 +5012,7 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B65">
         <v>94970</v>
@@ -5014,7 +5026,7 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B66">
         <v>225702</v>
@@ -5028,7 +5040,7 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B67">
         <v>17471</v>
@@ -5042,7 +5054,7 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B68">
         <v>204576</v>
@@ -5056,7 +5068,7 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B69">
         <v>148696</v>
@@ -5070,7 +5082,7 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B70">
         <v>12276</v>
@@ -5084,7 +5096,7 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B71">
         <v>40568</v>
@@ -5098,7 +5110,7 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B72">
         <v>60203</v>
@@ -5112,7 +5124,7 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B73">
         <v>13005</v>
@@ -5126,7 +5138,7 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B74">
         <v>39097</v>
@@ -5140,7 +5152,7 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B75">
         <v>170243</v>
@@ -5154,7 +5166,7 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B76">
         <v>19328</v>
@@ -5168,7 +5180,7 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B77">
         <v>144171</v>
@@ -5182,7 +5194,7 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B78">
         <v>42946</v>
@@ -5196,7 +5208,7 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B79">
         <v>116530</v>
@@ -5210,7 +5222,7 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B80">
         <v>91096</v>
@@ -5224,7 +5236,7 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B81">
         <v>146875</v>
@@ -5238,7 +5250,7 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B82">
         <v>64444</v>
@@ -5252,7 +5264,7 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B83">
         <v>59036</v>
@@ -5266,7 +5278,7 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B84">
         <v>34174</v>
@@ -5280,7 +5292,7 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B85">
         <v>62504</v>
@@ -5294,7 +5306,7 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B86">
         <v>44520</v>
@@ -5308,7 +5320,7 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B87">
         <v>71359</v>
@@ -5322,7 +5334,7 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B88">
         <v>14117</v>
@@ -5336,7 +5348,7 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B89">
         <v>32986</v>
@@ -5350,7 +5362,7 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B90">
         <v>3245</v>
@@ -5364,7 +5376,7 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B91">
         <v>238267</v>
@@ -5378,7 +5390,7 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B92">
         <v>42578</v>
@@ -5392,7 +5404,7 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B93">
         <v>1129410</v>
@@ -5406,7 +5418,7 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B94">
         <v>18642</v>
@@ -5420,7 +5432,7 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B95">
         <v>11003</v>
@@ -5434,7 +5446,7 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B96">
         <v>54086</v>
@@ -5448,7 +5460,7 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B97">
         <v>117333</v>
@@ -5462,7 +5474,7 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B98">
         <v>65969</v>
@@ -5476,7 +5488,7 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B99">
         <v>78784</v>
@@ -5490,7 +5502,7 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B100">
         <v>37214</v>
@@ -5504,7 +5516,7 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B101">
         <v>18470</v>

--- a/data/raw_data/NC/pop_est_2020-2021_nc.xlsx
+++ b/data/raw_data/NC/pop_est_2020-2021_nc.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iulia\Documents\NSS\projects\capstone\data\raw_data\NC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{263F90A3-18CC-4537-8978-332E8D59D59C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19DD3E97-1A17-4840-BF06-BC92264D4B5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28710" yWindow="0" windowWidth="19080" windowHeight="15480" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="orig" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="213">
   <si>
     <t>North Carolina</t>
   </si>
@@ -4100,10 +4100,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AD5195A-2135-45F0-A631-D73362FD559A}">
-  <dimension ref="A1:D102"/>
+  <dimension ref="A1:D101"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A72" workbookViewId="0">
-      <selection activeCell="A102" sqref="A102:D102"/>
+      <selection activeCell="A102" sqref="A102:XFD102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5528,20 +5528,6 @@
         <v>18757</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
-        <v>0</v>
-      </c>
-      <c r="B102">
-        <v>10439388</v>
-      </c>
-      <c r="C102">
-        <v>10457177</v>
-      </c>
-      <c r="D102">
-        <v>10551162</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
